--- a/va_facility_data_2025-02-20/Travis W. Atkins Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''Travis%20W.%20Atkins%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Travis W. Atkins Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''Travis%20W.%20Atkins%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1fc60c2d4383499989a6070e268c875a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6df169eadd644500933a2b71410c45a6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R48b58df1150c4983884853315a61414b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R73afb08795644c078b12400c4b683c6f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5a619e31672f47eab309e41f302bec91"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re673ce8659154da9ad02e9b8fa2f0df4"/>
   </x:sheets>
 </x:workbook>
 </file>
